--- a/players_stats/Lorenzen Wright.xlsx
+++ b/players_stats/Lorenzen Wright.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,40 +499,45 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>BLK</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -547,108 +552,119 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1967-68</t>
+          <t>1996-97</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DNR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>51</v>
+      </c>
       <c r="J2" t="n">
-        <v>896</v>
+        <v>1936</v>
       </c>
       <c r="K2" t="n">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>346</v>
+        <v>491</v>
       </c>
       <c r="M2" t="n">
-        <v>0.422</v>
+        <v>0.481</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="R2" t="n">
-        <v>337</v>
+        <v>487</v>
       </c>
       <c r="S2" t="n">
-        <v>0.427</v>
+        <v>0.483</v>
       </c>
       <c r="T2" t="n">
-        <v>0.425</v>
+        <v>0.482</v>
       </c>
       <c r="U2" t="n">
+        <v>88</v>
+      </c>
+      <c r="V2" t="n">
+        <v>150</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5870000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>206</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>265</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>471</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="n">
         <v>79</v>
       </c>
-      <c r="V2" t="n">
-        <v>121</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>43</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>96</v>
-      </c>
       <c r="AE2" t="n">
-        <v>373</v>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>211</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>561</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI2" t="n">
-        <v>54</v>
+      <c r="AJ2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -660,112 +676,119 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1968-69</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DNR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>69</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
       <c r="J3" t="n">
-        <v>2538</v>
+        <v>2067</v>
       </c>
       <c r="K3" t="n">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>1089</v>
+        <v>542</v>
       </c>
       <c r="M3" t="n">
-        <v>0.416</v>
+        <v>0.445</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="R3" t="n">
-        <v>1003</v>
+        <v>540</v>
       </c>
       <c r="S3" t="n">
-        <v>0.433</v>
+        <v>0.446</v>
       </c>
       <c r="T3" t="n">
-        <v>0.425</v>
+        <v>0.445</v>
       </c>
       <c r="U3" t="n">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="V3" t="n">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="W3" t="n">
-        <v>0.743</v>
+        <v>0.659</v>
       </c>
       <c r="X3" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="Y3" t="n">
-        <v>240</v>
+        <v>426</v>
       </c>
       <c r="Z3" t="n">
-        <v>290</v>
+        <v>606</v>
       </c>
       <c r="AA3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>55</v>
+      </c>
       <c r="AC3" t="n">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="AD3" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="n">
-        <v>1130</v>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>237</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>623</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI3" t="n">
-        <v>54</v>
+      <c r="AJ3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -777,112 +800,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1969-70</t>
+          <t>1998-99</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DNR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
       <c r="J4" t="n">
-        <v>2237</v>
+        <v>1135</v>
       </c>
       <c r="K4" t="n">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="L4" t="n">
-        <v>952</v>
+        <v>260</v>
       </c>
       <c r="M4" t="n">
-        <v>0.413</v>
+        <v>0.458</v>
       </c>
       <c r="N4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>339</v>
+        <v>119</v>
       </c>
       <c r="R4" t="n">
-        <v>759</v>
+        <v>259</v>
       </c>
       <c r="S4" t="n">
-        <v>0.447</v>
+        <v>0.459</v>
       </c>
       <c r="T4" t="n">
-        <v>0.441</v>
+        <v>0.458</v>
       </c>
       <c r="U4" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="V4" t="n">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6920000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="Y4" t="n">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="Z4" t="n">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="AA4" t="n">
-        <v>149</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
       <c r="AC4" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AD4" t="n">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="AE4" t="n">
-        <v>961</v>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>162</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>319</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI4" t="n">
-        <v>54</v>
+      <c r="AJ4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -894,112 +924,119 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>1999-00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG-SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>1398</v>
+        <v>1205</v>
       </c>
       <c r="K5" t="n">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>558</v>
+        <v>361</v>
       </c>
       <c r="M5" t="n">
-        <v>0.357</v>
+        <v>0.499</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.23</v>
+        <v>0.333</v>
       </c>
       <c r="Q5" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R5" t="n">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="S5" t="n">
-        <v>0.376</v>
+        <v>0.5</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3720000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="U5" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V5" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6990000000000001</v>
+        <v>0.644</v>
       </c>
       <c r="X5" t="n">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="Y5" t="n">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="Z5" t="n">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="AA5" t="n">
-        <v>116</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
       <c r="AC5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="n">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="AE5" t="n">
-        <v>508</v>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>203</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>448</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI5" t="n">
-        <v>54</v>
+      <c r="AJ5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1011,112 +1048,119 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DNR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>41</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46</v>
+      </c>
       <c r="J6" t="n">
-        <v>769</v>
+        <v>1988</v>
       </c>
       <c r="K6" t="n">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="L6" t="n">
-        <v>328</v>
+        <v>811</v>
       </c>
       <c r="M6" t="n">
-        <v>0.299</v>
+        <v>0.448</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="R6" t="n">
-        <v>272</v>
+        <v>809</v>
       </c>
       <c r="S6" t="n">
-        <v>0.305</v>
+        <v>0.449</v>
       </c>
       <c r="T6" t="n">
-        <v>0.322</v>
+        <v>0.448</v>
       </c>
       <c r="U6" t="n">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="V6" t="n">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.718</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="Y6" t="n">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="Z6" t="n">
-        <v>89</v>
+        <v>535</v>
       </c>
       <c r="AA6" t="n">
-        <v>61</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>42</v>
+      </c>
       <c r="AC6" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AD6" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="AE6" t="n">
-        <v>264</v>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>232</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>881</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI6" t="n">
-        <v>54</v>
+      <c r="AJ6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +1172,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1136,104 +1180,111 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33</v>
+      </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>1251</v>
       </c>
       <c r="K7" t="n">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="L7" t="n">
-        <v>230</v>
+        <v>486</v>
       </c>
       <c r="M7" t="n">
-        <v>0.439</v>
+        <v>0.459</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="O7" t="n">
-        <v>18</v>
-      </c>
       <c r="P7" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="R7" t="n">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="S7" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.459</v>
       </c>
       <c r="U7" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="V7" t="n">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7140000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="Y7" t="n">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Z7" t="n">
-        <v>64</v>
+        <v>405</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>30</v>
+      </c>
       <c r="AC7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="n">
-        <v>244</v>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>126</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>516</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI7" t="n">
-        <v>54</v>
+      <c r="AJ7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1245,7 +1296,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1971-72</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1253,104 +1304,111 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>77</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
       <c r="J8" t="n">
-        <v>1638</v>
+        <v>1982</v>
       </c>
       <c r="K8" t="n">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="L8" t="n">
-        <v>599</v>
+        <v>716</v>
       </c>
       <c r="M8" t="n">
-        <v>0.421</v>
+        <v>0.454</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="R8" t="n">
-        <v>526</v>
+        <v>711</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.457</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.454</v>
       </c>
       <c r="U8" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="V8" t="n">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.659</v>
       </c>
       <c r="X8" t="n">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="Y8" t="n">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="Z8" t="n">
-        <v>158</v>
+        <v>528</v>
       </c>
       <c r="AA8" t="n">
-        <v>133</v>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
       <c r="AC8" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="AD8" t="n">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="AE8" t="n">
-        <v>618</v>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
+        <v>209</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>797</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92 </t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI8" t="n">
-        <v>54</v>
+      <c r="AJ8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1362,106 +1420,1093 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>46</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1674</v>
+      </c>
+      <c r="K9" t="n">
+        <v>257</v>
+      </c>
+      <c r="L9" t="n">
+        <v>586</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>257</v>
+      </c>
+      <c r="R9" t="n">
+        <v>581</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="U9" t="n">
+        <v>96</v>
+      </c>
+      <c r="V9" t="n">
+        <v>131</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="X9" t="n">
+        <v>144</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>301</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>445</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>192</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>610</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2287</v>
+      </c>
+      <c r="K10" t="n">
+        <v>320</v>
+      </c>
+      <c r="L10" t="n">
+        <v>683</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>320</v>
+      </c>
+      <c r="R10" t="n">
+        <v>680</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="U10" t="n">
+        <v>131</v>
+      </c>
+      <c r="V10" t="n">
+        <v>198</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="X10" t="n">
+        <v>177</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>436</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>613</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>771</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1689</v>
+      </c>
+      <c r="K11" t="n">
+        <v>194</v>
+      </c>
+      <c r="L11" t="n">
+        <v>406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>194</v>
+      </c>
+      <c r="R11" t="n">
+        <v>404</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="U11" t="n">
+        <v>66</v>
+      </c>
+      <c r="V11" t="n">
+        <v>117</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>253</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>395</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>454</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1035</v>
+      </c>
+      <c r="K12" t="n">
+        <v>82</v>
+      </c>
+      <c r="L12" t="n">
+        <v>183</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>82</v>
+      </c>
+      <c r="R12" t="n">
+        <v>183</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>32</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="X12" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>216</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>39</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>204</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>173</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>161</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>21</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>21</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>13</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>148</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>17</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>125</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" t="n">
+        <v>27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>335</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>8707</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1443</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3544</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="N9" t="n">
-        <v>111</v>
-      </c>
-      <c r="O9" t="n">
-        <v>435</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1332</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3109</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="U9" t="n">
-        <v>593</v>
-      </c>
-      <c r="V9" t="n">
-        <v>822</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="X9" t="n">
-        <v>199</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>618</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>913</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>641</v>
-      </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>464</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>983</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>3590</v>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 92 </t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>778</v>
+      </c>
+      <c r="I17" t="n">
+        <v>447</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18535</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2556</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5573</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2554</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5544</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1077</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1670</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1688</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3255</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4943</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>622</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>471</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>572</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>877</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2276</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6191</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AI9" t="n">
-        <v>54</v>
+      <c r="AJ17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
